--- a/biology/Biologie cellulaire et moléculaire/Théorie_de_la_téléportation_de_l'ADN/Théorie_de_la_téléportation_de_l'ADN.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Théorie_de_la_téléportation_de_l'ADN/Théorie_de_la_téléportation_de_l'ADN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_la_t%C3%A9l%C3%A9portation_de_l%27ADN</t>
+          <t>Théorie_de_la_téléportation_de_l'ADN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « théorie » de la téléportation de l'ADN est une affirmation pseudo-scientifique selon laquelle l'ADN produirait des signaux électromagnétiques, mesurables lorsqu'il est fortement dilué dans l'eau, qui pourraient être enregistrés, transmis électroniquement et ré-émis sur un autre échantillon d'eau pure éloigné, où l'ADN pourrait alors être répliqué par une simple réaction PCR, malgré l'absence d'ADN à copier pour les enzymes dans le nouvel échantillon d'eau[1]. Aucune étude n'a prouvé la véracité de cette théorie, qui est fortement remise en cause par la plus large partie de la communauté scientifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « théorie » de la téléportation de l'ADN est une affirmation pseudo-scientifique selon laquelle l'ADN produirait des signaux électromagnétiques, mesurables lorsqu'il est fortement dilué dans l'eau, qui pourraient être enregistrés, transmis électroniquement et ré-émis sur un autre échantillon d'eau pure éloigné, où l'ADN pourrait alors être répliqué par une simple réaction PCR, malgré l'absence d'ADN à copier pour les enzymes dans le nouvel échantillon d'eau. Aucune étude n'a prouvé la véracité de cette théorie, qui est fortement remise en cause par la plus large partie de la communauté scientifique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_la_t%C3%A9l%C3%A9portation_de_l%27ADN</t>
+          <t>Théorie_de_la_téléportation_de_l'ADN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Théorie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette idée a été développée en 2009 par Luc Montagnier[2], lauréat du prix Nobel de médecine pour des travaux menés en 1983 sur un sujet sans lien. Elle est semblable en principe à la mémoire de l'eau, un autre concept pseudo-scientifique popularisé en 1988 par Jacques Benveniste[3], un scientifique français ami de Montagnier, et depuis largement discrédité. Benveniste affirmait déjà en 1997 avoir transmis par téléphone des « effets biologiques » entre Chicago et Paris[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette idée a été développée en 2009 par Luc Montagnier, lauréat du prix Nobel de médecine pour des travaux menés en 1983 sur un sujet sans lien. Elle est semblable en principe à la mémoire de l'eau, un autre concept pseudo-scientifique popularisé en 1988 par Jacques Benveniste, un scientifique français ami de Montagnier, et depuis largement discrédité. Benveniste affirmait déjà en 1997 avoir transmis par téléphone des « effets biologiques » entre Chicago et Paris.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_la_t%C3%A9l%C3%A9portation_de_l%27ADN</t>
+          <t>Théorie_de_la_téléportation_de_l'ADN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aucune recherche indépendante n'a soutenu cette assertion, et il n'existe aucune théorie scientifique, ni de mécanisme explicatif plausible par lequel elle pourrait être valable[7]. En 2015, l'équipe de Montagnier publie d'autres résultats semblables à ceux de 2009, mais à l'aide d'ADN bactérien et viral. Dans ce nouvel article, elle prétend que les ondes électromagnétiques pourraient être expliquées en termes d'effets quantiques[6],[8]. Ces travaux ont été critiqués pour leur manque de reproductibilité, les méthodes publiées étant évasives et manquant de contrôles, et les affirmations de Montagnier ont fait l'objet de critiques acerbes, assimilées au mysticisme quantique ou au charlatanisme. Bien que les résultats de ces « études » prétendent bouleverser la physique et la biologie moléculaire modernes, ils sont tout bonnement et simplement ignorés par la communauté scientifique « pour une bonne raison, à savoir qu'ils sont absolument invraisemblables »[9].
-À la suite de ces déclarations – qui succèdent à d'autres prises de positions pseudo-scientifiques – Montagnier a été la « risée du monde scientifique »[1], et diagnostiqué par certains tenants du scepticisme scientifique comme atteint de la « maladie du Nobel » (consistant pour un prix Nobel à se mettre à travailler sur des sujets où il n'a aucune compétence ou sur des théories pseudo-scientifiques)[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune recherche indépendante n'a soutenu cette assertion, et il n'existe aucune théorie scientifique, ni de mécanisme explicatif plausible par lequel elle pourrait être valable. En 2015, l'équipe de Montagnier publie d'autres résultats semblables à ceux de 2009, mais à l'aide d'ADN bactérien et viral. Dans ce nouvel article, elle prétend que les ondes électromagnétiques pourraient être expliquées en termes d'effets quantiques,. Ces travaux ont été critiqués pour leur manque de reproductibilité, les méthodes publiées étant évasives et manquant de contrôles, et les affirmations de Montagnier ont fait l'objet de critiques acerbes, assimilées au mysticisme quantique ou au charlatanisme. Bien que les résultats de ces « études » prétendent bouleverser la physique et la biologie moléculaire modernes, ils sont tout bonnement et simplement ignorés par la communauté scientifique « pour une bonne raison, à savoir qu'ils sont absolument invraisemblables ».
+À la suite de ces déclarations – qui succèdent à d'autres prises de positions pseudo-scientifiques – Montagnier a été la « risée du monde scientifique », et diagnostiqué par certains tenants du scepticisme scientifique comme atteint de la « maladie du Nobel » (consistant pour un prix Nobel à se mettre à travailler sur des sujets où il n'a aucune compétence ou sur des théories pseudo-scientifiques).
 </t>
         </is>
       </c>
